--- a/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
+++ b/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24C8D49-2540-40E8-BC99-5D068D173E3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E240AB8-06F4-466D-ACE4-A74B1172D0BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Ambiente</t>
   </si>
@@ -39,9 +39,6 @@
     <t>PREPROD</t>
   </si>
   <si>
-    <t>1120194100385</t>
-  </si>
-  <si>
     <t>0420194406533</t>
   </si>
   <si>
@@ -52,6 +49,12 @@
   </si>
   <si>
     <t>0200194</t>
+  </si>
+  <si>
+    <t>1120194100405</t>
+  </si>
+  <si>
+    <t>4500203</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -431,7 +434,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -439,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
+++ b/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E240AB8-06F4-466D-ACE4-A74B1172D0BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EE1148-6B24-4AA4-A6DE-0C0FB0B16A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Ambiente</t>
   </si>
@@ -39,9 +39,6 @@
     <t>PREPROD</t>
   </si>
   <si>
-    <t>0420194406533</t>
-  </si>
-  <si>
     <t>1120170200908</t>
   </si>
   <si>
@@ -55,6 +52,18 @@
   </si>
   <si>
     <t>4500203</t>
+  </si>
+  <si>
+    <t>4500983</t>
+  </si>
+  <si>
+    <t>0420194406695</t>
+  </si>
+  <si>
+    <t>1220194200662</t>
+  </si>
+  <si>
+    <t>4500276</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD85637-653B-40C5-BF5F-AE1069CCABB3}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -426,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -445,18 +454,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
+++ b/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EE1148-6B24-4AA4-A6DE-0C0FB0B16A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B855E3-A0E3-4AF5-AAAF-E70BDBEF40EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -48,22 +48,22 @@
     <t>0200194</t>
   </si>
   <si>
-    <t>1120194100405</t>
-  </si>
-  <si>
-    <t>4500203</t>
-  </si>
-  <si>
-    <t>4500983</t>
-  </si>
-  <si>
-    <t>0420194406695</t>
-  </si>
-  <si>
-    <t>1220194200662</t>
-  </si>
-  <si>
-    <t>4500276</t>
+    <t>4500996</t>
+  </si>
+  <si>
+    <t>0420194406717</t>
+  </si>
+  <si>
+    <t>1120194100412</t>
+  </si>
+  <si>
+    <t>4500205</t>
+  </si>
+  <si>
+    <t>4500278</t>
+  </si>
+  <si>
+    <t>1220194200667</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
+++ b/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B855E3-A0E3-4AF5-AAAF-E70BDBEF40EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD86C0A-6DD0-4D2B-8F53-FDC0CC8EB134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Ambiente</t>
   </si>
@@ -39,15 +39,9 @@
     <t>PREPROD</t>
   </si>
   <si>
-    <t>1120170200908</t>
-  </si>
-  <si>
     <t>NroAnulacion</t>
   </si>
   <si>
-    <t>0200194</t>
-  </si>
-  <si>
     <t>4500996</t>
   </si>
   <si>
@@ -64,6 +58,24 @@
   </si>
   <si>
     <t>1220194200667</t>
+  </si>
+  <si>
+    <t>2026909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008629 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200942 </t>
+  </si>
+  <si>
+    <t>0200212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220170301442 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0300190 </t>
   </si>
 </sst>
 </file>
@@ -416,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD85637-653B-40C5-BF5F-AE1069CCABB3}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +447,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -443,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,10 +477,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,10 +488,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
+++ b/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD86C0A-6DD0-4D2B-8F53-FDC0CC8EB134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8A9885-72B9-4063-9E73-A2C627F82745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -60,22 +60,22 @@
     <t>1220194200667</t>
   </si>
   <si>
-    <t>2026909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008629 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1120170200942 </t>
-  </si>
-  <si>
-    <t>0200212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1220170301442 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0300190 </t>
+    <t xml:space="preserve">0420172010228  </t>
+  </si>
+  <si>
+    <t>2027965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1120170200969 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0200224 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1220170301466 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0300204  </t>
   </si>
 </sst>
 </file>
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,5 +518,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
+++ b/SuraClaims/Validacion_AnulaciónPago_SISE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8A9885-72B9-4063-9E73-A2C627F82745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A362B6DF-4983-46BE-89EF-7FF2104154F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{77A7D9F1-F7BA-4199-BEE8-4F39B1D5E954}"/>
   </bookViews>
@@ -63,19 +63,19 @@
     <t xml:space="preserve">0420172010228  </t>
   </si>
   <si>
-    <t>2027965</t>
-  </si>
-  <si>
     <t xml:space="preserve">1120170200969 </t>
   </si>
   <si>
-    <t xml:space="preserve">0200224 </t>
-  </si>
-  <si>
     <t xml:space="preserve">1220170301466 </t>
   </si>
   <si>
-    <t xml:space="preserve">0300204  </t>
+    <t>2027972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0200235 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0300216  </t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
